--- a/simple.xlsx
+++ b/simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Symbol</t>
   </si>
@@ -46,10 +46,220 @@
     <t>Risk</t>
   </si>
   <si>
+    <t>TSM</t>
+  </si>
+  <si>
     <t>ABR</t>
   </si>
   <si>
-    <t>MSFT</t>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>MPW</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>TROW</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>TXN</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
+    <t>CATC</t>
+  </si>
+  <si>
+    <t>ITW</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>GLW</t>
+  </si>
+  <si>
+    <t>FIBK</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>PHM</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>TSN</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>FBP</t>
+  </si>
+  <si>
+    <t>DOV</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>MDT</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>HII</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>EXPD</t>
+  </si>
+  <si>
+    <t>CNI</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>AWI</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>FBHS</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>SIRI</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>STLD</t>
+  </si>
+  <si>
+    <t>FRBA</t>
+  </si>
+  <si>
+    <t>EMR</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>LECO</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>HUBB</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>GWW</t>
   </si>
 </sst>
 </file>
@@ -399,31 +609,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>14.54</v>
+        <v>80.9</v>
       </c>
       <c r="C2">
-        <v>0.10302197</v>
+        <v>13.473788</v>
       </c>
       <c r="D2">
-        <v>7.5</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>8.812121</v>
+        <v>12.620905</v>
       </c>
       <c r="F2">
-        <v>3.7601666604479154</v>
+        <v>47.675333436330156</v>
       </c>
       <c r="G2">
-        <v>0.8916666666666667</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>11.260166660447915</v>
+        <v>102.67533343633016</v>
       </c>
       <c r="I2">
-        <v>14.02489015</v>
+        <v>25.900000000000006</v>
       </c>
       <c r="J2">
-        <v>1.2455313116513063</v>
+        <v>0.2522514330675226</v>
       </c>
     </row>
     <row r="3">
@@ -431,31 +641,2271 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>256.06</v>
+        <v>14.54</v>
       </c>
       <c r="C3">
-        <v>0.00952381</v>
+        <v>10.302197</v>
       </c>
       <c r="D3">
-        <v>12.4</v>
+        <v>7.5</v>
       </c>
       <c r="E3">
-        <v>21.445562</v>
+        <v>8.812121</v>
       </c>
       <c r="F3">
-        <v>81.97783336639404</v>
+        <v>6.168166669209798</v>
       </c>
       <c r="G3">
-        <v>0.975</v>
+        <v>98.33333333333333</v>
       </c>
       <c r="H3">
-        <v>94.37783336639404</v>
+        <v>13.668166669209798</v>
       </c>
       <c r="I3">
-        <v>256.01238095</v>
+        <v>7.039999999999999</v>
       </c>
       <c r="J3">
-        <v>2.7126325305234293</v>
+        <v>0.5150654195532286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>119.05</v>
+      </c>
+      <c r="C4">
+        <v>5.1528163000000005</v>
+      </c>
+      <c r="D4">
+        <v>30.6</v>
+      </c>
+      <c r="E4">
+        <v>8.917603</v>
+      </c>
+      <c r="F4">
+        <v>122.71366713841756</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>153.31366713841757</v>
+      </c>
+      <c r="I4">
+        <v>88.44999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.5769218208063855</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>14.32</v>
+      </c>
+      <c r="C5">
+        <v>7.845836</v>
+      </c>
+      <c r="D5">
+        <v>5.699999999999999</v>
+      </c>
+      <c r="E5">
+        <v>11.642276</v>
+      </c>
+      <c r="F5">
+        <v>4.771999899546305</v>
+      </c>
+      <c r="G5">
+        <v>88.33333333333333</v>
+      </c>
+      <c r="H5">
+        <v>10.471999899546304</v>
+      </c>
+      <c r="I5">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.8231474486906231</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>71.14</v>
+      </c>
+      <c r="C6">
+        <v>4.3980516</v>
+      </c>
+      <c r="D6">
+        <v>15.8</v>
+      </c>
+      <c r="E6">
+        <v>10.09078</v>
+      </c>
+      <c r="F6">
+        <v>49.36949995358785</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>65.16949995358785</v>
+      </c>
+      <c r="I6">
+        <v>55.34</v>
+      </c>
+      <c r="J6">
+        <v>0.8491702412848314</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>31.22</v>
+      </c>
+      <c r="C7">
+        <v>4.4867758</v>
+      </c>
+      <c r="D7">
+        <v>7.125</v>
+      </c>
+      <c r="E7">
+        <v>11.649253</v>
+      </c>
+      <c r="F7">
+        <v>19.514499727884928</v>
+      </c>
+      <c r="G7">
+        <v>95</v>
+      </c>
+      <c r="H7">
+        <v>26.639499727884928</v>
+      </c>
+      <c r="I7">
+        <v>24.095</v>
+      </c>
+      <c r="J7">
+        <v>0.9044839522560001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>118.34</v>
+      </c>
+      <c r="C8">
+        <v>3.8319327</v>
+      </c>
+      <c r="D8">
+        <v>22.799999999999997</v>
+      </c>
+      <c r="E8">
+        <v>12.536017</v>
+      </c>
+      <c r="F8">
+        <v>56.67783292134603</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>79.47783292134602</v>
+      </c>
+      <c r="I8">
+        <v>95.54</v>
+      </c>
+      <c r="J8">
+        <v>1.2020961881855743</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>113.71</v>
+      </c>
+      <c r="C9">
+        <v>3.4931446999999998</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>9.046142</v>
+      </c>
+      <c r="F9">
+        <v>56.84099998474121</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>76.84099998474122</v>
+      </c>
+      <c r="I9">
+        <v>93.71</v>
+      </c>
+      <c r="J9">
+        <v>1.2195312400750713</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>160.32</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>14.587808</v>
+      </c>
+      <c r="F10">
+        <v>131.0908332188924</v>
+      </c>
+      <c r="G10">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="H10">
+        <v>131.0908332188924</v>
+      </c>
+      <c r="I10">
+        <v>160.32</v>
+      </c>
+      <c r="J10">
+        <v>1.2229688076839165</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>44.59</v>
+      </c>
+      <c r="C11">
+        <v>3.3119895</v>
+      </c>
+      <c r="D11">
+        <v>7.5</v>
+      </c>
+      <c r="E11">
+        <v>11.734211</v>
+      </c>
+      <c r="F11">
+        <v>20.773166751861574</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>28.273166751861574</v>
+      </c>
+      <c r="I11">
+        <v>37.09</v>
+      </c>
+      <c r="J11">
+        <v>1.3118445600918724</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>163</v>
+      </c>
+      <c r="C12">
+        <v>2.690178</v>
+      </c>
+      <c r="D12">
+        <v>22.349999999999998</v>
+      </c>
+      <c r="E12">
+        <v>18.335207</v>
+      </c>
+      <c r="F12">
+        <v>84.02433360417685</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>106.37433360417684</v>
+      </c>
+      <c r="I12">
+        <v>140.65</v>
+      </c>
+      <c r="J12">
+        <v>1.322217448838404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>430.21</v>
+      </c>
+      <c r="C13">
+        <v>1.3887603</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>11.996932</v>
+      </c>
+      <c r="F13">
+        <v>272.36866569519043</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>302.36866569519043</v>
+      </c>
+      <c r="I13">
+        <v>400.21</v>
+      </c>
+      <c r="J13">
+        <v>1.3235829151802414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>19.32</v>
+      </c>
+      <c r="C14">
+        <v>2.5257733</v>
+      </c>
+      <c r="D14">
+        <v>2.45</v>
+      </c>
+      <c r="E14">
+        <v>19.32</v>
+      </c>
+      <c r="F14">
+        <v>9.833166718482971</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>12.28316671848297</v>
+      </c>
+      <c r="I14">
+        <v>16.87</v>
+      </c>
+      <c r="J14">
+        <v>1.373424328322031</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>106.88</v>
+      </c>
+      <c r="C15">
+        <v>2.5020698</v>
+      </c>
+      <c r="D15">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="E15">
+        <v>6.709353</v>
+      </c>
+      <c r="F15">
+        <v>54.06116746266683</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>67.66116746266684</v>
+      </c>
+      <c r="I15">
+        <v>93.28</v>
+      </c>
+      <c r="J15">
+        <v>1.378634207745067</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>291.9</v>
+      </c>
+      <c r="C16">
+        <v>2.5053687</v>
+      </c>
+      <c r="D16">
+        <v>36.75</v>
+      </c>
+      <c r="E16">
+        <v>16.814516</v>
+      </c>
+      <c r="F16">
+        <v>142.7263345082601</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>179.4763345082601</v>
+      </c>
+      <c r="I16">
+        <v>255.14999999999998</v>
+      </c>
+      <c r="J16">
+        <v>1.4216358981203572</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>56.33</v>
+      </c>
+      <c r="C17">
+        <v>0.7241319</v>
+      </c>
+      <c r="D17">
+        <v>2.0749999999999997</v>
+      </c>
+      <c r="E17">
+        <v>14.369898</v>
+      </c>
+      <c r="F17">
+        <v>36.05133323669433</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>38.126333236694336</v>
+      </c>
+      <c r="I17">
+        <v>54.254999999999995</v>
+      </c>
+      <c r="J17">
+        <v>1.4230322035737435</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>33.43</v>
+      </c>
+      <c r="C18">
+        <v>2.50971</v>
+      </c>
+      <c r="D18">
+        <v>4.2</v>
+      </c>
+      <c r="E18">
+        <v>8.890958</v>
+      </c>
+      <c r="F18">
+        <v>15.505333312352498</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>19.705333312352497</v>
+      </c>
+      <c r="I18">
+        <v>29.23</v>
+      </c>
+      <c r="J18">
+        <v>1.483354761711991</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>83.27</v>
+      </c>
+      <c r="C19">
+        <v>2.3219815</v>
+      </c>
+      <c r="D19">
+        <v>9.75</v>
+      </c>
+      <c r="E19">
+        <v>14.307559</v>
+      </c>
+      <c r="F19">
+        <v>39.1495007832845</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="H19">
+        <v>48.8995007832845</v>
+      </c>
+      <c r="I19">
+        <v>73.52</v>
+      </c>
+      <c r="J19">
+        <v>1.5034918316616355</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>102.5</v>
+      </c>
+      <c r="C20">
+        <v>1.774132</v>
+      </c>
+      <c r="D20">
+        <v>9.3</v>
+      </c>
+      <c r="E20">
+        <v>21.855011</v>
+      </c>
+      <c r="F20">
+        <v>52.45326827367147</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>61.753268273671466</v>
+      </c>
+      <c r="I20">
+        <v>93.2</v>
+      </c>
+      <c r="J20">
+        <v>1.5092318610080087</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>35.76</v>
+      </c>
+      <c r="C21">
+        <v>2.818428</v>
+      </c>
+      <c r="D21">
+        <v>5.2</v>
+      </c>
+      <c r="E21">
+        <v>9.264249</v>
+      </c>
+      <c r="F21">
+        <v>14.165500005086264</v>
+      </c>
+      <c r="G21">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="H21">
+        <v>19.365500005086265</v>
+      </c>
+      <c r="I21">
+        <v>30.56</v>
+      </c>
+      <c r="J21">
+        <v>1.5780640826197903</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>79.8</v>
+      </c>
+      <c r="C22">
+        <v>3.0788178</v>
+      </c>
+      <c r="D22">
+        <v>12.5</v>
+      </c>
+      <c r="E22">
+        <v>8.8864155</v>
+      </c>
+      <c r="F22">
+        <v>30.02533353169759</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>42.52533353169759</v>
+      </c>
+      <c r="I22">
+        <v>67.3</v>
+      </c>
+      <c r="J22">
+        <v>1.5825860589626142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>195.4</v>
+      </c>
+      <c r="C23">
+        <v>2.4741432</v>
+      </c>
+      <c r="D23">
+        <v>24.4</v>
+      </c>
+      <c r="E23">
+        <v>20.332987</v>
+      </c>
+      <c r="F23">
+        <v>83.21600023905437</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>107.61600023905436</v>
+      </c>
+      <c r="I23">
+        <v>171</v>
+      </c>
+      <c r="J23">
+        <v>1.588983047317747</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>82.94</v>
+      </c>
+      <c r="C24">
+        <v>2.295082</v>
+      </c>
+      <c r="D24">
+        <v>9.8</v>
+      </c>
+      <c r="E24">
+        <v>24.251463</v>
+      </c>
+      <c r="F24">
+        <v>35.917666339874266</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>45.71766633987427</v>
+      </c>
+      <c r="I24">
+        <v>73.14</v>
+      </c>
+      <c r="J24">
+        <v>1.5998191914754052</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>33.15</v>
+      </c>
+      <c r="C25">
+        <v>3.0115146</v>
+      </c>
+      <c r="D25">
+        <v>5.1</v>
+      </c>
+      <c r="E25">
+        <v>13.366936</v>
+      </c>
+      <c r="F25">
+        <v>12.373833417892456</v>
+      </c>
+      <c r="G25">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="H25">
+        <v>17.473833417892457</v>
+      </c>
+      <c r="I25">
+        <v>28.049999999999997</v>
+      </c>
+      <c r="J25">
+        <v>1.6052573770834966</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>39.39</v>
+      </c>
+      <c r="C26">
+        <v>4.1247487</v>
+      </c>
+      <c r="D26">
+        <v>8.2</v>
+      </c>
+      <c r="E26">
+        <v>9.822942</v>
+      </c>
+      <c r="F26">
+        <v>11.118333101272583</v>
+      </c>
+      <c r="G26">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="H26">
+        <v>19.318333101272582</v>
+      </c>
+      <c r="I26">
+        <v>31.19</v>
+      </c>
+      <c r="J26">
+        <v>1.6145285328963181</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>86.4</v>
+      </c>
+      <c r="C27">
+        <v>3.336428</v>
+      </c>
+      <c r="D27">
+        <v>14.375</v>
+      </c>
+      <c r="E27">
+        <v>11.00637</v>
+      </c>
+      <c r="F27">
+        <v>29.72750005722046</v>
+      </c>
+      <c r="G27">
+        <v>98.33333333333333</v>
+      </c>
+      <c r="H27">
+        <v>44.10250005722046</v>
+      </c>
+      <c r="I27">
+        <v>72.025</v>
+      </c>
+      <c r="J27">
+        <v>1.633127371612759</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>418.57</v>
+      </c>
+      <c r="C28">
+        <v>2.6028726</v>
+      </c>
+      <c r="D28">
+        <v>55</v>
+      </c>
+      <c r="E28">
+        <v>15.16558</v>
+      </c>
+      <c r="F28">
+        <v>165.82783317565918</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>220.82783317565918</v>
+      </c>
+      <c r="I28">
+        <v>363.57</v>
+      </c>
+      <c r="J28">
+        <v>1.6463957227293693</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>164.6</v>
+      </c>
+      <c r="C29">
+        <v>2.1839359999999997</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>13.808725</v>
+      </c>
+      <c r="F29">
+        <v>70.87383346557617</v>
+      </c>
+      <c r="G29">
+        <v>98.33333333333333</v>
+      </c>
+      <c r="H29">
+        <v>88.87383346557617</v>
+      </c>
+      <c r="I29">
+        <v>146.6</v>
+      </c>
+      <c r="J29">
+        <v>1.6495293865857954</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>180.83</v>
+      </c>
+      <c r="C30">
+        <v>2.4830082</v>
+      </c>
+      <c r="D30">
+        <v>22.650000000000002</v>
+      </c>
+      <c r="E30">
+        <v>13.160845</v>
+      </c>
+      <c r="F30">
+        <v>73.03066679636638</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>95.68066679636638</v>
+      </c>
+      <c r="I30">
+        <v>158.18</v>
+      </c>
+      <c r="J30">
+        <v>1.6532075422995185</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>71.38</v>
+      </c>
+      <c r="C31">
+        <v>1.2266928</v>
+      </c>
+      <c r="D31">
+        <v>4.375</v>
+      </c>
+      <c r="E31">
+        <v>5.016163</v>
+      </c>
+      <c r="F31">
+        <v>35.186333401997885</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>39.561333401997885</v>
+      </c>
+      <c r="I31">
+        <v>67.005</v>
+      </c>
+      <c r="J31">
+        <v>1.6936992320035447</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>223.94</v>
+      </c>
+      <c r="C32">
+        <v>2.0923648</v>
+      </c>
+      <c r="D32">
+        <v>23.650000000000002</v>
+      </c>
+      <c r="E32">
+        <v>17.633072</v>
+      </c>
+      <c r="F32">
+        <v>92.17091547648111</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>115.82091547648112</v>
+      </c>
+      <c r="I32">
+        <v>200.29</v>
+      </c>
+      <c r="J32">
+        <v>1.7293076917585872</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>40.45</v>
+      </c>
+      <c r="C33">
+        <v>1.4299802000000001</v>
+      </c>
+      <c r="D33">
+        <v>2.9</v>
+      </c>
+      <c r="E33">
+        <v>3.9773846</v>
+      </c>
+      <c r="F33">
+        <v>18.582500060399372</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>21.48250006039937</v>
+      </c>
+      <c r="I33">
+        <v>37.550000000000004</v>
+      </c>
+      <c r="J33">
+        <v>1.7479343602665365</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>44.94</v>
+      </c>
+      <c r="C34">
+        <v>3.4490380000000003</v>
+      </c>
+      <c r="D34">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="E34">
+        <v>9.876923</v>
+      </c>
+      <c r="F34">
+        <v>13.160444196065267</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>20.960444196065268</v>
+      </c>
+      <c r="I34">
+        <v>37.14</v>
+      </c>
+      <c r="J34">
+        <v>1.7719090135967628</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>195.51</v>
+      </c>
+      <c r="C35">
+        <v>1.7623621999999999</v>
+      </c>
+      <c r="D35">
+        <v>17.25</v>
+      </c>
+      <c r="E35">
+        <v>13.464875</v>
+      </c>
+      <c r="F35">
+        <v>82.56016724904379</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>99.81016724904379</v>
+      </c>
+      <c r="I35">
+        <v>178.26</v>
+      </c>
+      <c r="J35">
+        <v>1.785990394698069</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>74.62</v>
+      </c>
+      <c r="C36">
+        <v>2.4726009</v>
+      </c>
+      <c r="D36">
+        <v>9.25</v>
+      </c>
+      <c r="E36">
+        <v>9.409837</v>
+      </c>
+      <c r="F36">
+        <v>27.065499846140543</v>
+      </c>
+      <c r="G36">
+        <v>98.33333333333333</v>
+      </c>
+      <c r="H36">
+        <v>36.31549984614054</v>
+      </c>
+      <c r="I36">
+        <v>65.37</v>
+      </c>
+      <c r="J36">
+        <v>1.8000578341742763</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>56.27</v>
+      </c>
+      <c r="C37">
+        <v>1.9496632999999999</v>
+      </c>
+      <c r="D37">
+        <v>5.5</v>
+      </c>
+      <c r="E37">
+        <v>15.167116</v>
+      </c>
+      <c r="F37">
+        <v>22.457374874750773</v>
+      </c>
+      <c r="G37">
+        <v>95</v>
+      </c>
+      <c r="H37">
+        <v>27.957374874750773</v>
+      </c>
+      <c r="I37">
+        <v>50.77</v>
+      </c>
+      <c r="J37">
+        <v>1.8159787972744201</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>13.38</v>
+      </c>
+      <c r="C38">
+        <v>3.473762</v>
+      </c>
+      <c r="D38">
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="E38">
+        <v>8.522293</v>
+      </c>
+      <c r="F38">
+        <v>3.710666632652283</v>
+      </c>
+      <c r="G38">
+        <v>85</v>
+      </c>
+      <c r="H38">
+        <v>6.060666632652282</v>
+      </c>
+      <c r="I38">
+        <v>11.030000000000001</v>
+      </c>
+      <c r="J38">
+        <v>1.8199318108960283</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>14.19</v>
+      </c>
+      <c r="C39">
+        <v>2.7522935</v>
+      </c>
+      <c r="D39">
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="E39">
+        <v>8.2023115</v>
+      </c>
+      <c r="F39">
+        <v>4.772499982515971</v>
+      </c>
+      <c r="G39">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="H39">
+        <v>6.722499982515971</v>
+      </c>
+      <c r="I39">
+        <v>12.239999999999998</v>
+      </c>
+      <c r="J39">
+        <v>1.8207512133631931</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>127.97</v>
+      </c>
+      <c r="C40">
+        <v>1.5496668</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>14.047201</v>
+      </c>
+      <c r="F40">
+        <v>54.679378827412926</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>64.67937882741293</v>
+      </c>
+      <c r="I40">
+        <v>117.97</v>
+      </c>
+      <c r="J40">
+        <v>1.8239198047152705</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>242.37</v>
+      </c>
+      <c r="C41">
+        <v>3.0142566</v>
+      </c>
+      <c r="D41">
+        <v>37</v>
+      </c>
+      <c r="E41">
+        <v>12.9264</v>
+      </c>
+      <c r="F41">
+        <v>73.6059991200765</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>110.6059991200765</v>
+      </c>
+      <c r="I41">
+        <v>205.37</v>
+      </c>
+      <c r="J41">
+        <v>1.8567708951938986</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>87.2</v>
+      </c>
+      <c r="C42">
+        <v>2.1348696</v>
+      </c>
+      <c r="D42">
+        <v>9.45</v>
+      </c>
+      <c r="E42">
+        <v>14.754653</v>
+      </c>
+      <c r="F42">
+        <v>32.25599975585938</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>41.70599975585938</v>
+      </c>
+      <c r="I42">
+        <v>77.75</v>
+      </c>
+      <c r="J42">
+        <v>1.864240168204497</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>114.55</v>
+      </c>
+      <c r="C43">
+        <v>2.321833</v>
+      </c>
+      <c r="D43">
+        <v>13.325</v>
+      </c>
+      <c r="E43">
+        <v>19.252102</v>
+      </c>
+      <c r="F43">
+        <v>40.686333084106444</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>54.01133308410644</v>
+      </c>
+      <c r="I43">
+        <v>101.225</v>
+      </c>
+      <c r="J43">
+        <v>1.8741437068841171</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>226.8</v>
+      </c>
+      <c r="C44">
+        <v>2.0573236</v>
+      </c>
+      <c r="D44">
+        <v>23.4</v>
+      </c>
+      <c r="E44">
+        <v>12.670391</v>
+      </c>
+      <c r="F44">
+        <v>84.67216714223225</v>
+      </c>
+      <c r="G44">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="H44">
+        <v>108.07216714223225</v>
+      </c>
+      <c r="I44">
+        <v>203.4</v>
+      </c>
+      <c r="J44">
+        <v>1.8820757034723672</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>53.24</v>
+      </c>
+      <c r="C45">
+        <v>0.5604334</v>
+      </c>
+      <c r="D45">
+        <v>1.5</v>
+      </c>
+      <c r="E45">
+        <v>10.026366</v>
+      </c>
+      <c r="F45">
+        <v>24.509166701634726</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>26.009166701634726</v>
+      </c>
+      <c r="I45">
+        <v>51.74</v>
+      </c>
+      <c r="J45">
+        <v>1.9892986420340812</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>101.68</v>
+      </c>
+      <c r="C46">
+        <v>1.204123</v>
+      </c>
+      <c r="D46">
+        <v>6.25</v>
+      </c>
+      <c r="E46">
+        <v>17.683477</v>
+      </c>
+      <c r="F46">
+        <v>41.219666226704916</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>47.469666226704916</v>
+      </c>
+      <c r="I46">
+        <v>95.43</v>
+      </c>
+      <c r="J46">
+        <v>2.010336443998718</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>117</v>
+      </c>
+      <c r="C47">
+        <v>2.2967445</v>
+      </c>
+      <c r="D47">
+        <v>13.475</v>
+      </c>
+      <c r="E47">
+        <v>22.117203</v>
+      </c>
+      <c r="F47">
+        <v>37.09508355458578</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+      <c r="H47">
+        <v>50.57008355458578</v>
+      </c>
+      <c r="I47">
+        <v>103.525</v>
+      </c>
+      <c r="J47">
+        <v>2.0471589667882246</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>108.68</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>18.482992</v>
+      </c>
+      <c r="F48">
+        <v>52.98042360941569</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+      <c r="H48">
+        <v>52.98042360941569</v>
+      </c>
+      <c r="I48">
+        <v>108.68</v>
+      </c>
+      <c r="J48">
+        <v>2.0513237266884627</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>86.23</v>
+      </c>
+      <c r="C49">
+        <v>3.0751579</v>
+      </c>
+      <c r="D49">
+        <v>13.4</v>
+      </c>
+      <c r="E49">
+        <v>11.558982</v>
+      </c>
+      <c r="F49">
+        <v>21.896476173400877</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>35.296476173400876</v>
+      </c>
+      <c r="I49">
+        <v>72.83</v>
+      </c>
+      <c r="J49">
+        <v>2.063378781559052</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>107.85</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>18.279661</v>
+      </c>
+      <c r="F50">
+        <v>52.20366589228312</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>52.20366589228312</v>
+      </c>
+      <c r="I50">
+        <v>107.85</v>
+      </c>
+      <c r="J50">
+        <v>2.0659468670751466</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>83.22</v>
+      </c>
+      <c r="C51">
+        <v>1.1018363999999998</v>
+      </c>
+      <c r="D51">
+        <v>4.62</v>
+      </c>
+      <c r="E51">
+        <v>14.177173</v>
+      </c>
+      <c r="F51">
+        <v>32.93633295694987</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+      <c r="H51">
+        <v>37.556332956949866</v>
+      </c>
+      <c r="I51">
+        <v>78.6</v>
+      </c>
+      <c r="J51">
+        <v>2.092856086085341</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>45.7</v>
+      </c>
+      <c r="C52">
+        <v>3.3883765</v>
+      </c>
+      <c r="D52">
+        <v>7.9</v>
+      </c>
+      <c r="E52">
+        <v>8.7213745</v>
+      </c>
+      <c r="F52">
+        <v>9.977286307017009</v>
+      </c>
+      <c r="G52">
+        <v>95</v>
+      </c>
+      <c r="H52">
+        <v>17.87728630701701</v>
+      </c>
+      <c r="I52">
+        <v>37.800000000000004</v>
+      </c>
+      <c r="J52">
+        <v>2.1144148698431446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>162.74</v>
+      </c>
+      <c r="C53">
+        <v>2.6067497</v>
+      </c>
+      <c r="D53">
+        <v>21.549999999999997</v>
+      </c>
+      <c r="E53">
+        <v>15.367328</v>
+      </c>
+      <c r="F53">
+        <v>44.87350031534831</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>66.4235003153483</v>
+      </c>
+      <c r="I53">
+        <v>141.19</v>
+      </c>
+      <c r="J53">
+        <v>2.125603127352438</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>60.56</v>
+      </c>
+      <c r="C54">
+        <v>1.7629776</v>
+      </c>
+      <c r="D54">
+        <v>5.4</v>
+      </c>
+      <c r="E54">
+        <v>9.288343</v>
+      </c>
+      <c r="F54">
+        <v>20.356999969482423</v>
+      </c>
+      <c r="G54">
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>25.756999969482422</v>
+      </c>
+      <c r="I54">
+        <v>55.160000000000004</v>
+      </c>
+      <c r="J54">
+        <v>2.1415537549153645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>137.16</v>
+      </c>
+      <c r="C55">
+        <v>2.5229162</v>
+      </c>
+      <c r="D55">
+        <v>17.615000000000002</v>
+      </c>
+      <c r="E55">
+        <v>20.625565</v>
+      </c>
+      <c r="F55">
+        <v>38.07650057474772</v>
+      </c>
+      <c r="G55">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="H55">
+        <v>55.69150057474772</v>
+      </c>
+      <c r="I55">
+        <v>119.54499999999999</v>
+      </c>
+      <c r="J55">
+        <v>2.1465573519526506</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>59.4</v>
+      </c>
+      <c r="C56">
+        <v>2.452957</v>
+      </c>
+      <c r="D56">
+        <v>7.3</v>
+      </c>
+      <c r="E56">
+        <v>10.95941</v>
+      </c>
+      <c r="F56">
+        <v>16.90099989573161</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>24.20099989573161</v>
+      </c>
+      <c r="I56">
+        <v>52.1</v>
+      </c>
+      <c r="J56">
+        <v>2.152803612432105</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>6.07</v>
+      </c>
+      <c r="C57">
+        <v>1.32137025</v>
+      </c>
+      <c r="D57">
+        <v>0.405</v>
+      </c>
+      <c r="E57">
+        <v>17.852942</v>
+      </c>
+      <c r="F57">
+        <v>2.2135000030199685</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>2.6185000030199683</v>
+      </c>
+      <c r="I57">
+        <v>5.665</v>
+      </c>
+      <c r="J57">
+        <v>2.1634523557252026</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>97.86</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>12.171642</v>
+      </c>
+      <c r="F58">
+        <v>43.18349990844727</v>
+      </c>
+      <c r="G58">
+        <v>100</v>
+      </c>
+      <c r="H58">
+        <v>43.18349990844727</v>
+      </c>
+      <c r="I58">
+        <v>97.86</v>
+      </c>
+      <c r="J58">
+        <v>2.2661433234330617</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>99.53</v>
+      </c>
+      <c r="C59">
+        <v>2.0991603000000003</v>
+      </c>
+      <c r="D59">
+        <v>10.5</v>
+      </c>
+      <c r="E59">
+        <v>6.969888</v>
+      </c>
+      <c r="F59">
+        <v>28.392833455403647</v>
+      </c>
+      <c r="G59">
+        <v>90</v>
+      </c>
+      <c r="H59">
+        <v>38.89283345540365</v>
+      </c>
+      <c r="I59">
+        <v>89.03</v>
+      </c>
+      <c r="J59">
+        <v>2.2891106687324796</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60">
+        <v>268.42</v>
+      </c>
+      <c r="C60">
+        <v>1.7237537</v>
+      </c>
+      <c r="D60">
+        <v>23.2</v>
+      </c>
+      <c r="E60">
+        <v>9.586429</v>
+      </c>
+      <c r="F60">
+        <v>81.4636687596639</v>
+      </c>
+      <c r="G60">
+        <v>95</v>
+      </c>
+      <c r="H60">
+        <v>104.6636687596639</v>
+      </c>
+      <c r="I60">
+        <v>245.22000000000003</v>
+      </c>
+      <c r="J60">
+        <v>2.342933349327659</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>149.79</v>
+      </c>
+      <c r="C61">
+        <v>1.2573621</v>
+      </c>
+      <c r="D61">
+        <v>9.5</v>
+      </c>
+      <c r="E61">
+        <v>13.220653</v>
+      </c>
+      <c r="F61">
+        <v>49.20133330027262</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>58.70133330027262</v>
+      </c>
+      <c r="I61">
+        <v>140.29</v>
+      </c>
+      <c r="J61">
+        <v>2.389894609077788</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62">
+        <v>60.73</v>
+      </c>
+      <c r="C62">
+        <v>2.2591576</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>19.218353</v>
+      </c>
+      <c r="F62">
+        <v>15.460333442687988</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>22.46033344268799</v>
+      </c>
+      <c r="I62">
+        <v>53.73</v>
+      </c>
+      <c r="J62">
+        <v>2.392217379011883</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>287.7</v>
+      </c>
+      <c r="C63">
+        <v>1.4720176</v>
+      </c>
+      <c r="D63">
+        <v>21.200000000000003</v>
+      </c>
+      <c r="E63">
+        <v>11.36256</v>
+      </c>
+      <c r="F63">
+        <v>89.5230006535848</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>110.7230006535848</v>
+      </c>
+      <c r="I63">
+        <v>266.5</v>
+      </c>
+      <c r="J63">
+        <v>2.406907313086549</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>77.94</v>
+      </c>
+      <c r="C64">
+        <v>1.5515905</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>8.144201</v>
+      </c>
+      <c r="F64">
+        <v>23.685666624704997</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>29.685666624704997</v>
+      </c>
+      <c r="I64">
+        <v>71.94</v>
+      </c>
+      <c r="J64">
+        <v>2.423391763758814</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>14.8</v>
+      </c>
+      <c r="C65">
+        <v>1.4189188</v>
+      </c>
+      <c r="D65">
+        <v>1.05</v>
+      </c>
+      <c r="E65">
+        <v>7.149759</v>
+      </c>
+      <c r="F65">
+        <v>4.5244999647140505</v>
+      </c>
+      <c r="G65">
+        <v>98.33333333333333</v>
+      </c>
+      <c r="H65">
+        <v>5.57449996471405</v>
+      </c>
+      <c r="I65">
+        <v>13.75</v>
+      </c>
+      <c r="J65">
+        <v>2.466588947355984</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>81.75</v>
+      </c>
+      <c r="C66">
+        <v>2.4996951</v>
+      </c>
+      <c r="D66">
+        <v>10.25</v>
+      </c>
+      <c r="E66">
+        <v>14.863636</v>
+      </c>
+      <c r="F66">
+        <v>17.96366678873698</v>
+      </c>
+      <c r="G66">
+        <v>90</v>
+      </c>
+      <c r="H66">
+        <v>28.21366678873698</v>
+      </c>
+      <c r="I66">
+        <v>71.5</v>
+      </c>
+      <c r="J66">
+        <v>2.534232807645659</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>224.88</v>
+      </c>
+      <c r="C67">
+        <v>2.1742025000000003</v>
+      </c>
+      <c r="D67">
+        <v>24.5</v>
+      </c>
+      <c r="E67">
+        <v>16.051392</v>
+      </c>
+      <c r="F67">
+        <v>53.5761666615804</v>
+      </c>
+      <c r="G67">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="H67">
+        <v>78.0761666615804</v>
+      </c>
+      <c r="I67">
+        <v>200.38</v>
+      </c>
+      <c r="J67">
+        <v>2.566468213898655</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>135.51</v>
+      </c>
+      <c r="C68">
+        <v>1.5967919000000002</v>
+      </c>
+      <c r="D68">
+        <v>10.95</v>
+      </c>
+      <c r="E68">
+        <v>15.756975</v>
+      </c>
+      <c r="F68">
+        <v>37.29216677347819</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>48.24216677347819</v>
+      </c>
+      <c r="I68">
+        <v>124.55999999999999</v>
+      </c>
+      <c r="J68">
+        <v>2.5819735789412883</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>98.48</v>
+      </c>
+      <c r="C69">
+        <v>3.1476267</v>
+      </c>
+      <c r="D69">
+        <v>15.649999999999999</v>
+      </c>
+      <c r="E69">
+        <v>20.431536</v>
+      </c>
+      <c r="F69">
+        <v>16.031833012898762</v>
+      </c>
+      <c r="G69">
+        <v>90</v>
+      </c>
+      <c r="H69">
+        <v>31.68183301289876</v>
+      </c>
+      <c r="I69">
+        <v>82.83000000000001</v>
+      </c>
+      <c r="J69">
+        <v>2.614432061625888</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>206.34</v>
+      </c>
+      <c r="C70">
+        <v>1.9834790000000002</v>
+      </c>
+      <c r="D70">
+        <v>20.65</v>
+      </c>
+      <c r="E70">
+        <v>19.688932</v>
+      </c>
+      <c r="F70">
+        <v>43.57183252970378</v>
+      </c>
+      <c r="G70">
+        <v>90</v>
+      </c>
+      <c r="H70">
+        <v>64.22183252970378</v>
+      </c>
+      <c r="I70">
+        <v>185.69</v>
+      </c>
+      <c r="J70">
+        <v>2.891384326570173</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>190.88</v>
+      </c>
+      <c r="C71">
+        <v>1.6810660000000002</v>
+      </c>
+      <c r="D71">
+        <v>16.15</v>
+      </c>
+      <c r="E71">
+        <v>10.9575205</v>
+      </c>
+      <c r="F71">
+        <v>43.21266644795735</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>59.36266644795735</v>
+      </c>
+      <c r="I71">
+        <v>174.73</v>
+      </c>
+      <c r="J71">
+        <v>2.943432471201138</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>83.78</v>
+      </c>
+      <c r="C72">
+        <v>1.7876169000000002</v>
+      </c>
+      <c r="D72">
+        <v>7.55</v>
+      </c>
+      <c r="E72">
+        <v>14.175973</v>
+      </c>
+      <c r="F72">
+        <v>17.9589999516805</v>
+      </c>
+      <c r="G72">
+        <v>98.33333333333333</v>
+      </c>
+      <c r="H72">
+        <v>25.5089999516805</v>
+      </c>
+      <c r="I72">
+        <v>76.23</v>
+      </c>
+      <c r="J72">
+        <v>2.9883570561133688</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>555.31</v>
+      </c>
+      <c r="C73">
+        <v>1.1812225</v>
+      </c>
+      <c r="D73">
+        <v>32.9</v>
+      </c>
+      <c r="E73">
+        <v>18.843231</v>
+      </c>
+      <c r="F73">
+        <v>136.8856648763021</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>169.7856648763021</v>
+      </c>
+      <c r="I73">
+        <v>522.41</v>
+      </c>
+      <c r="J73">
+        <v>3.076879313578113</v>
       </c>
     </row>
   </sheetData>
